--- a/uploads/sanitized_Filename.xlsx
+++ b/uploads/sanitized_Filename.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,35 +16,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Segoe UI"/>
@@ -85,11 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -469,144 +445,199 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.54296875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name of Company</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Post Code</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
           <t>CompanyA</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>B202ER</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>CompanyB</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Something</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>CompanyG</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>B202ER</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>CompanyB</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>B202ER</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>CompanyE</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>B202ER</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>CompanyF</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>B202ER</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>CompanyG</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Hello</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>CompanyG</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>B202ER</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>CompanyI</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>B202ER</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>CompanyJ</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>HELLO</t>
         </is>

--- a/uploads/sanitized_Filename.xlsx
+++ b/uploads/sanitized_Filename.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19090" yWindow="-7840" windowWidth="25820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Drop down lists" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +26,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -42,12 +63,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
         <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -63,11 +78,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,6 +174,24 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>None</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    make sure that it is clear this is only for mandatory conditional</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,206 +490,748 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="6.54296875" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="21" customWidth="1" style="5" min="2" max="2"/>
+    <col width="16.453125" customWidth="1" style="5" min="3" max="3"/>
+    <col width="32.36328125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="44.26953125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="15.54296875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="22.81640625" customWidth="1" style="1" min="7" max="8"/>
+    <col width="10.1796875" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.453125" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="10.453125" customWidth="1" style="1" min="11" max="11"/>
+    <col width="22.36328125" customWidth="1" style="1" min="12" max="12"/>
+    <col width="20.1796875" customWidth="1" style="1" min="13" max="13"/>
+    <col width="24.453125" customWidth="1" style="1" min="14" max="14"/>
+    <col width="16" customWidth="1" style="1" min="15" max="15"/>
+    <col width="8.54296875" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13.81640625" bestFit="1" customWidth="1" style="1" min="17" max="17"/>
+    <col width="8.54296875" customWidth="1" style="1" min="18" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>rule_id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>All or Any</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>rule_type</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>error_message</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>value(s)</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>regex</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>whitespace_trim</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>min_value</t>
+        </is>
+      </c>
+      <c r="J1" s="7" t="inlineStr">
+        <is>
+          <t>max_value</t>
+        </is>
+      </c>
+      <c r="K1" s="7" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>condition_attribute(s)</t>
+        </is>
+      </c>
+      <c r="M1" s="7" t="inlineStr">
+        <is>
+          <t>condition_value(s)_1</t>
+        </is>
+      </c>
+      <c r="N1" s="7" t="inlineStr">
+        <is>
+          <t>condition_attribute(s)_2</t>
+        </is>
+      </c>
+      <c r="O1" s="7" t="inlineStr">
+        <is>
+          <t>condition_value(s)_2</t>
+        </is>
+      </c>
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>condition_2</t>
+        </is>
+      </c>
+      <c r="Q1" s="7" t="inlineStr">
+        <is>
+          <t>condition_attribute(s)_3</t>
+        </is>
+      </c>
+      <c r="R1" s="7" t="inlineStr">
+        <is>
+          <t>condition_value(s)_3</t>
+        </is>
+      </c>
+      <c r="S1" s="7" t="inlineStr">
+        <is>
+          <t>condition_3</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>full_name</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>check_mandatory</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>This is mandatory</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>check_uniqueness</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Phone number already registered</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="N3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>street_address#1</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>check_mandatory</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>This is mandatory</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>check_if_valid_phonenumber</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>This is not a phonenumber</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>marketing_consent</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>check_valid_values</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Not a valid valid value, must be 0,1,2</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>check_max_length</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Phone number to long, must be less than 13 numbers.</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n"/>
+      <c r="J7" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>check_if_valid_email</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>Not a valid email</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>full_name</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>check_if_alphabetic</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>Name must be alphabetic</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>spaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>check_if_alphabetic</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>City must be alphabetic</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>spaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>check_mandatory</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>This is mandatory</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>marketing_consent</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>check_mandatory</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>This is mandatory</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>marketing_consent</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>check_if_numeric</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>Must be a number</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>customer_id</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>value_between</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>Value must be between</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>conditional_entry_must_not_be</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>If there is a street address, there must also be a city</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>not equal</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>street_address#1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>check_min_length</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>This field should be 5 characters in length</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="10" t="n"/>
+      <c r="E17" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.54296875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="32.1796875" customWidth="1" style="3" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name of Company</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Post Code</t>
+          <t>Rule types</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Condition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>CompanyA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>B202ER</t>
+          <t>check_mandatory</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>equal</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>CompanyB</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Something</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>check_uniqueness</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>not equal</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>CompanyG</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>B202ER</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>check_min_length</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>CompanyB</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>B202ER</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>check_mandatory_conditional</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>not null</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>CompanyE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>B202ER</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>check_valid_values</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>CompanyF</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>B202ER</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>check_against_regex</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>CompanyG</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Hello</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>check_max_length</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>CompanyG</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>B202ER</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>must_be_the_same_as</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>CompanyI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>B202ER</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>uniqueness_across_attributes</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>CompanyJ</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>HELLO</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>check_if_alphabetic</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>check_if_numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>check_if_company_reg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>check_if_AWRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>check_if_VAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>check_if_valid_postcode</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>check_if_valid_email</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>check_if_valid_phonenumber</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>check_length_in_range</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>conditional_entry_must_be</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>either_one_must_equal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mandatory_one_per_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>only_one_conditional</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>entry_contains</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>entry_does_not_contain</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>entry_begins_with</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>entry_ends_with</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>not_a_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>uniqueness_within_supplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>value_between</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>conditional_entry_must_not_be</t>
         </is>
       </c>
     </row>

--- a/uploads/sanitized_Filename.xlsx
+++ b/uploads/sanitized_Filename.xlsx
@@ -2,23 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Reuters" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="WM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="WT" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Data Profiling" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,16 +25,25 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,17 +51,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -136,44 +154,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -200,32 +218,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -252,24 +252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -281,142 +263,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -426,169 +432,168 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <cols>
-    <col width="9.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Column</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total records</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unique values</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Missing values</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Top 5 values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Job Title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <cols>
-    <col width="9.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="9.453125" bestFit="1" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Middle Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Job Title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Salary</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <cols>
-    <col width="9.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="9.453125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="9.7265625" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Middle Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Job Title</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/uploads/sanitized_Filename.xlsx
+++ b/uploads/sanitized_Filename.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Profiling" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,10 +25,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -42,8 +44,14 @@
         <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -51,27 +59,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -154,44 +155,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -218,14 +219,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -252,6 +271,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -263,166 +300,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -432,168 +445,150 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="16.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="16" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Column</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total records</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unique values</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Missing values</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Top 5 values</t>
+          <t>Name of Company</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Post Code</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{}</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CompanyA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B202ER</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{}</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CompanyB</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Something</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>{}</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CompanyG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B202ER</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Job Title</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>{}</t>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>CompanyB</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B202ER</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{}</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CompanyE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B202ER</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>{}</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CompanyF</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B202ER</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>CompanyG</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>CompanyG</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B202ER</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CompanyI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B202ER</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CompanyJ</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>HELLO</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>